--- a/HNConnect.xlsx
+++ b/HNConnect.xlsx
@@ -89,11 +89,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -109,6 +110,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,12 +161,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -182,7 +194,7 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:T20"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -732,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="1" t="n">
         <v>0</v>
@@ -751,7 +763,7 @@
       </c>
       <c r="T9" s="1" t="n">
         <f aca="false">SUM(B9:S9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1019,7 +1031,7 @@
       <c r="D14" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="1" t="n">
@@ -1032,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>0</v>
@@ -1066,7 +1078,7 @@
       </c>
       <c r="T14" s="1" t="n">
         <f aca="false">SUM(B14:S14)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1088,7 +1100,7 @@
       <c r="F15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="1" t="n">
@@ -1416,7 +1428,7 @@
       </c>
       <c r="I20" s="1" t="n">
         <f aca="false">SUM(I2:I19)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J20" s="1" t="n">
         <f aca="false">SUM(J2:J19)</f>
@@ -1436,7 +1448,7 @@
       </c>
       <c r="N20" s="1" t="n">
         <f aca="false">SUM(N2:N19)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" s="1" t="n">
         <f aca="false">SUM(O2:O19)</f>

--- a/HNConnect.xlsx
+++ b/HNConnect.xlsx
@@ -193,8 +193,8 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" s="1" t="n">
         <v>1</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="T9" s="1" t="n">
         <f aca="false">SUM(B9:S9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="T17" s="1" t="n">
         <f aca="false">SUM(B17:S17)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I20" s="1" t="n">
         <f aca="false">SUM(I2:I19)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="n">
         <f aca="false">SUM(J2:J19)</f>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="Q20" s="1" t="n">
         <f aca="false">SUM(Q2:Q19)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R20" s="1" t="n">
         <f aca="false">SUM(R2:R19)</f>
